--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1008">
   <si>
     <t>anchor score</t>
   </si>
@@ -430,472 +430,472 @@
     <t>fault</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
   <si>
     <t>best</t>
@@ -3406,7 +3406,7 @@
         <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3464,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0296533717083907</v>
+        <v>0.03011220648226054</v>
       </c>
       <c r="C3">
         <v>148</v>
@@ -3485,28 +3485,28 @@
         <v>144</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="K3">
-        <v>0.004286930183499794</v>
+        <v>0.007883761796872939</v>
       </c>
       <c r="L3">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M3">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3514,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02024733037184847</v>
+        <v>0.02056062288185353</v>
       </c>
       <c r="C4">
         <v>69</v>
@@ -3535,16 +3535,16 @@
         <v>447</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4">
-        <v>0.004247896255903542</v>
+        <v>0.007220035300189963</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3564,7 +3564,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01005003755287181</v>
+        <v>0.01020554454726363</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -3585,28 +3585,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="K5">
-        <v>0.003877781002166846</v>
+        <v>0.004286930183499794</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3614,7 +3614,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01005003755287181</v>
+        <v>0.01020554454726363</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3635,28 +3635,28 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="K6">
-        <v>0.003638048539577673</v>
+        <v>0.004247896255903542</v>
       </c>
       <c r="L6">
-        <v>312</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2783</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3664,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01005003755287181</v>
+        <v>0.01020554454726363</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3685,28 +3685,28 @@
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="K7">
-        <v>0.00356905300959796</v>
+        <v>0.003877781002166846</v>
       </c>
       <c r="L7">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>779</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3714,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008788502892595584</v>
+        <v>0.008924489814320152</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3735,28 +3735,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.003516234929353794</v>
+        <v>0.003638048539577673</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>449</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3764,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007312476418573147</v>
+        <v>0.007425624376820171</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K9">
-        <v>0.003453535750577065</v>
+        <v>0.00356905300959796</v>
       </c>
       <c r="L9">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>0.99</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006894268883786388</v>
+        <v>0.007000945801858233</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3835,16 +3835,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K10">
-        <v>0.003270032062447351</v>
+        <v>0.003516234929353794</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3864,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006894268883786388</v>
+        <v>0.007000945801858233</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3885,28 +3885,28 @@
         <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="K11">
-        <v>0.003214550715657707</v>
+        <v>0.003453535750577065</v>
       </c>
       <c r="L11">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="M11">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2953</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3914,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006448998023856269</v>
+        <v>0.006548785143481718</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3935,16 +3935,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K12">
-        <v>0.003112977779562402</v>
+        <v>0.003270032062447351</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3964,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.005970611993879596</v>
+        <v>0.006062996914927246</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3985,28 +3985,28 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.003022211447874179</v>
+        <v>0.003214550715657707</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>41</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4014,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005970611993879596</v>
+        <v>0.006062996914927246</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -4035,16 +4035,16 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K14">
-        <v>0.002947567068391296</v>
+        <v>0.003112977779562402</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4064,7 +4064,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005970611993879596</v>
+        <v>0.006062996914927246</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4085,28 +4085,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="K15">
-        <v>0.002890327307567442</v>
+        <v>0.003022211447874179</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4114,7 +4114,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005970611993879596</v>
+        <v>0.006062996914927246</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4135,16 +4135,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K16">
-        <v>0.002831930837269027</v>
+        <v>0.002947567068391296</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4164,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -4185,16 +4185,16 @@
         <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K17">
-        <v>0.002831930837269027</v>
+        <v>0.002890327307567442</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -4235,16 +4235,16 @@
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K18">
-        <v>0.002772304562864703</v>
+        <v>0.002831930837269027</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4264,7 +4264,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4285,16 +4285,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19">
-        <v>0.002772304562864703</v>
+        <v>0.002831930837269027</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>207</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4314,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4335,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K20">
         <v>0.002772304562864703</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4364,7 +4364,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4385,28 +4385,28 @@
         <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="K21">
-        <v>0.002678501598580071</v>
+        <v>0.002772304562864703</v>
       </c>
       <c r="L21">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>798</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4414,7 +4414,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4435,16 +4435,16 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K22">
-        <v>0.002649028734025142</v>
+        <v>0.002772304562864703</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4464,7 +4464,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4485,28 +4485,28 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="K23">
-        <v>0.002555074005879049</v>
+        <v>0.002678501598580071</v>
       </c>
       <c r="L23">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="M23">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1892</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4514,7 +4514,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005450398118597921</v>
+        <v>0.005534733627316472</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4535,16 +4535,16 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K24">
-        <v>0.002519728929488497</v>
+        <v>0.002649028734025142</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4564,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4585,28 +4585,28 @@
         <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.002519728929488497</v>
+        <v>0.002555074005879049</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4614,7 +4614,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4635,28 +4635,28 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="K26">
-        <v>0.002453956342565572</v>
+        <v>0.002519728929488497</v>
       </c>
       <c r="L26">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4664,7 +4664,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4685,28 +4685,28 @@
         <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="K27">
-        <v>0.002392924873115328</v>
+        <v>0.002519728929488497</v>
       </c>
       <c r="L27">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4714,7 +4714,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4735,28 +4735,28 @@
         <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="K28">
-        <v>0.002383424956341533</v>
+        <v>0.002453956342565572</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4764,7 +4764,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4785,7 +4785,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K29">
         <v>0.002383424956341533</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4835,28 +4835,28 @@
         <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="K30">
-        <v>0.002338542243000478</v>
+        <v>0.002383424956341533</v>
       </c>
       <c r="L30">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4864,7 +4864,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4885,28 +4885,28 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="K31">
-        <v>0.002312261846053953</v>
+        <v>0.002338542243000478</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4914,7 +4914,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4935,7 +4935,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K32">
         <v>0.002312261846053953</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>169</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4964,7 +4964,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4985,7 +4985,7 @@
         <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K33">
         <v>0.002312261846053953</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5014,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5035,28 +5035,28 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="K34">
-        <v>0.002269106875675514</v>
+        <v>0.002312261846053953</v>
       </c>
       <c r="L34">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5064,7 +5064,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5085,28 +5085,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="K35">
-        <v>0.002238837905459445</v>
+        <v>0.002269106875675514</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5114,7 +5114,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004874984279048765</v>
+        <v>0.004950416251213448</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K36">
         <v>0.002238837905459445</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5164,7 +5164,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5185,7 +5185,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37">
         <v>0.002238837905459445</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5214,7 +5214,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5235,16 +5235,16 @@
         <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K38">
-        <v>0.002162922904110831</v>
+        <v>0.002238837905459445</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5264,7 +5264,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5285,7 +5285,7 @@
         <v>48</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K39">
         <v>0.002162922904110831</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5314,7 +5314,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5335,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K40">
         <v>0.002162922904110831</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5364,7 +5364,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5385,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K41">
         <v>0.002162922904110831</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5414,7 +5414,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5435,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K42">
         <v>0.002162922904110831</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5464,7 +5464,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5485,16 +5485,16 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K43">
-        <v>0.002084244662061638</v>
+        <v>0.002162922904110831</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5514,7 +5514,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K44">
         <v>0.002084244662061638</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5564,7 +5564,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5585,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K45">
         <v>0.002084244662061638</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5614,7 +5614,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5635,7 +5635,7 @@
         <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K46">
         <v>0.002084244662061638</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5664,7 +5664,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5685,28 +5685,28 @@
         <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="K47">
-        <v>0.00205359178386039</v>
+        <v>0.002084244662061638</v>
       </c>
       <c r="L47">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5714,7 +5714,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5738,25 +5738,25 @@
         <v>138</v>
       </c>
       <c r="K48">
-        <v>0.002051778275846228</v>
+        <v>0.00205359178386039</v>
       </c>
       <c r="L48">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="M48">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5764,7 +5764,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004221860228705996</v>
+        <v>0.004287186232858173</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5814,7 +5814,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K50">
         <v>0.001964551029248687</v>
@@ -5864,7 +5864,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5914,7 +5914,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5964,7 +5964,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6164,7 +6164,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6264,7 +6264,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6335,7 +6335,7 @@
         <v>24</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K60">
         <v>0.001801745215274968</v>
@@ -6364,7 +6364,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K61">
         <v>0.001801745215274968</v>
@@ -6414,7 +6414,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6464,7 +6464,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6564,7 +6564,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6614,7 +6614,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6664,7 +6664,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6685,7 +6685,7 @@
         <v>32</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K67">
         <v>0.00167216440645331</v>
@@ -6714,7 +6714,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6735,7 +6735,7 @@
         <v>250</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K68">
         <v>0.001645865364264749</v>
@@ -6764,7 +6764,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6814,7 +6814,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003447134441893194</v>
+        <v>0.003500472900929117</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6864,7 +6864,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003008486155759806</v>
+        <v>0.003055037289254619</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -6914,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002630321218158157</v>
+        <v>0.002671020901594058</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -6964,7 +6964,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002618541918438289</v>
+        <v>0.002659059337530815</v>
       </c>
       <c r="C73">
         <v>14</v>
@@ -7014,7 +7014,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7035,7 +7035,7 @@
         <v>8</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K74">
         <v>0.001587162786460258</v>
@@ -7064,7 +7064,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7085,7 +7085,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K75">
         <v>0.001553544401930657</v>
@@ -7114,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7214,7 +7214,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7314,7 +7314,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7364,7 +7364,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7564,7 +7564,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7614,7 +7614,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7664,7 +7664,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7714,7 +7714,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7764,7 +7764,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7835,7 +7835,7 @@
         <v>44</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K90">
         <v>0.001485472862956199</v>
@@ -7864,7 +7864,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7885,7 +7885,7 @@
         <v>10</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K91">
         <v>0.001477725999012936</v>
@@ -7914,7 +7914,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8014,7 +8014,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8064,7 +8064,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8164,7 +8164,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8214,7 +8214,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8264,7 +8264,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8314,7 +8314,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8364,7 +8364,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8464,7 +8464,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8514,7 +8514,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8564,7 +8564,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8664,7 +8664,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8714,7 +8714,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8814,7 +8814,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8914,7 +8914,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8935,7 +8935,7 @@
         <v>16</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K112">
         <v>0.001405796609206936</v>
@@ -8964,7 +8964,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>15</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K113">
         <v>0.001310002371842583</v>
@@ -9014,7 +9014,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9064,7 +9064,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9114,7 +9114,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9164,7 +9164,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9214,7 +9214,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9314,7 +9314,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9514,7 +9514,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9564,7 +9564,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9664,7 +9664,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9714,7 +9714,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9764,7 +9764,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9814,7 +9814,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9864,7 +9864,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002437492139524382</v>
+        <v>0.002475208125606724</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9964,25 +9964,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002287240504830029</v>
+        <v>0.002009765742824056</v>
       </c>
       <c r="C133">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D133">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>399</v>
@@ -10014,25 +10014,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002137381208863514</v>
+        <v>0.001918980510417037</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E134">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F134">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>400</v>
@@ -10064,25 +10064,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001979141935475921</v>
+        <v>0.001708213473136727</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="E135">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F135">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>401</v>
@@ -10114,25 +10114,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001889740043130904</v>
+        <v>0.001691926971071445</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="E136">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>402</v>
@@ -10164,25 +10164,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00168218456877431</v>
+        <v>0.001691346862599592</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E137">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F137">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>403</v>
@@ -10214,13 +10214,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001666146232299174</v>
+        <v>0.001613915977860111</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E138">
         <v>0.98</v>
@@ -10232,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>41</v>
+        <v>798</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>404</v>
@@ -10264,25 +10264,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001665574963230693</v>
+        <v>0.001557743092239408</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E139">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F139">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>405</v>
@@ -10314,13 +10314,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001589323931668391</v>
+        <v>0.001527023398750994</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E140">
         <v>0.98</v>
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>798</v>
+        <v>54</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>406</v>
@@ -10364,25 +10364,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001534006980443813</v>
+        <v>0.001481143647473902</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E141">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F141">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>19</v>
+        <v>790</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>407</v>
@@ -10414,25 +10414,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001503755378313083</v>
+        <v>0.001431315166032362</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E142">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F142">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>54</v>
+        <v>779</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>408</v>
@@ -10464,25 +10464,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001458574719788122</v>
+        <v>0.001416398334676668</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>790</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>409</v>
@@ -10514,25 +10514,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001409505499878212</v>
+        <v>0.001383032038793589</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E144">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F144">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>779</v>
+        <v>34</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>410</v>
@@ -10564,25 +10564,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001394815963753972</v>
+        <v>0.001363807544377385</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E145">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F145">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>18</v>
+        <v>1095</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>411</v>
@@ -10614,25 +10614,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001361958086834989</v>
+        <v>0.001363807544377385</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>412</v>
@@ -10664,25 +10664,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001343026525670071</v>
+        <v>0.001345991117644995</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E147">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F147">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1095</v>
+        <v>31</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>413</v>
@@ -10714,13 +10714,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001343026525670071</v>
+        <v>0.001318264834474749</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>589</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>414</v>
@@ -10764,25 +10764,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001325481576756343</v>
+        <v>0.001308669579985069</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>415</v>
@@ -10814,28 +10814,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001298177772851314</v>
+        <v>0.001298295034672972</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>589</v>
+        <v>156</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K150">
         <v>0.001234350592211073</v>
@@ -10864,28 +10864,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001288728726060713</v>
+        <v>0.001139866525999161</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K151">
         <v>0.00120090301223511</v>
@@ -10914,28 +10914,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001278512262892318</v>
+        <v>0.001061363734309146</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K152">
         <v>0.001182360574343261</v>
@@ -10964,28 +10964,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001122497808764616</v>
+        <v>0.00105178839579446</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E153">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F153">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K153">
         <v>0.001163802559991672</v>
@@ -11014,25 +11014,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001045191203434922</v>
+        <v>0.001031828749709861</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>16</v>
+        <v>528</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>416</v>
@@ -11064,25 +11064,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001035761769149628</v>
+        <v>0.001031123318836212</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E155">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F155">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>417</v>
@@ -11114,25 +11114,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001016106258190536</v>
+        <v>0.001007395723638588</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>528</v>
+        <v>123</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>418</v>
@@ -11164,25 +11164,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00101541157632047</v>
+        <v>0.0009742383256837508</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E157">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F157">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>419</v>
@@ -11214,13 +11214,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009920455303764149</v>
+        <v>0.0009733831683565209</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E158">
         <v>0.9399999999999999</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>420</v>
@@ -11264,25 +11264,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0009593933683033021</v>
+        <v>0.0009388192956538484</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E159">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>307</v>
+        <v>128</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>421</v>
@@ -11314,25 +11314,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0009585512414366296</v>
+        <v>0.0009253691343399928</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>422</v>
@@ -11364,25 +11364,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0009245140357759402</v>
+        <v>0.0008819133006677491</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>423</v>
@@ -11414,25 +11414,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0009112688213074309</v>
+        <v>0.0008788133126261994</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>424</v>
@@ -11464,25 +11464,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008684751459405932</v>
+        <v>0.0008788133126261994</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E163">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>425</v>
@@ -11514,25 +11514,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008654223939696676</v>
+        <v>0.0008662673457161577</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>426</v>
@@ -11564,25 +11564,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0008654223939696676</v>
+        <v>0.0008090858266579792</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>427</v>
@@ -11614,25 +11614,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0008530675962419155</v>
+        <v>0.0007771083340991832</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>428</v>
@@ -11664,25 +11664,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.00079675738063279</v>
+        <v>0.0007669601255348347</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E167">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F167">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>429</v>
@@ -11714,25 +11714,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007652671451461645</v>
+        <v>0.0007669601255348347</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>430</v>
@@ -11764,25 +11764,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007552735699191156</v>
+        <v>0.0007123363475231745</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E169">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>431</v>
@@ -11814,25 +11814,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0007552735699191156</v>
+        <v>0.0006882858390377427</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E170">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F170">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>432</v>
@@ -11864,13 +11864,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0007014821217749682</v>
+        <v>0.0006882858390377427</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>0.9399999999999999</v>
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>433</v>
@@ -11914,7 +11914,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006777980829346243</v>
+        <v>0.0006882858390377427</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>434</v>
@@ -11964,7 +11964,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006777980829346243</v>
+        <v>0.0006882858390377427</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>435</v>
@@ -12014,25 +12014,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006777980829346243</v>
+        <v>0.000660615811143323</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>436</v>
@@ -12064,25 +12064,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006777980829346243</v>
+        <v>0.0006356500341030253</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>437</v>
@@ -12114,25 +12114,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.000650549677115604</v>
+        <v>0.0006356500341030253</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E176">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>438</v>
@@ -12164,7 +12164,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006259643161258379</v>
+        <v>0.0006356500341030253</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>439</v>
@@ -12214,25 +12214,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006259643161258379</v>
+        <v>0.0006310641377404499</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>440</v>
@@ -12264,13 +12264,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006259643161258379</v>
+        <v>0.0006066960652883422</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179">
         <v>0.93</v>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>441</v>
@@ -12314,25 +12314,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006214482973632898</v>
+        <v>0.0006066960652883422</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F180">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>442</v>
@@ -12364,25 +12364,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005974515334375034</v>
+        <v>0.0005756814915022442</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>443</v>
@@ -12414,25 +12414,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005974515334375034</v>
+        <v>0.0005423227056653673</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E182">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F182">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>444</v>
@@ -12464,25 +12464,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005669095442478945</v>
+        <v>0.0005062768960642594</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>445</v>
@@ -12514,25 +12514,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005340590629407786</v>
+        <v>0.0005062768960642594</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F184">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>446</v>
@@ -12564,7 +12564,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004985625013965018</v>
+        <v>0.0005062768960642594</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12582,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>447</v>
@@ -12614,25 +12614,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004985625013965018</v>
+        <v>0.0004671259198184952</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F186">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>448</v>
@@ -12664,25 +12664,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004985625013965018</v>
+        <v>0.0004671259198184952</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>449</v>
@@ -12714,25 +12714,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004600080881871625</v>
+        <v>0.0004243556020354227</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>450</v>
@@ -12764,25 +12764,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004600080881871625</v>
+        <v>0.0004243556020354227</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>451</v>
@@ -12814,7 +12814,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004178894831605065</v>
+        <v>0.0004243556020354227</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12832,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>452</v>
@@ -12864,7 +12864,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004178894831605065</v>
+        <v>0.0004243556020354227</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>453</v>
@@ -12914,25 +12914,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004178894831605065</v>
+        <v>0.0004201083575773723</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F192">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>454</v>
@@ -12964,25 +12964,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004178894831605065</v>
+        <v>0.0004201083575773723</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F193">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>455</v>
@@ -13014,7 +13014,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000413706956093778</v>
+        <v>0.0004201083575773723</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -13032,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>456</v>
@@ -13064,7 +13064,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.000413706956093778</v>
+        <v>0.0004201083575773723</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>457</v>
@@ -13114,25 +13114,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.000413706956093778</v>
+        <v>0.0004044696308884958</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="F196">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>458</v>
@@ -13164,25 +13164,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.000413706956093778</v>
+        <v>0.0004000304861457254</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D197">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E197">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="F197">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <v>938</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>459</v>
@@ -13214,25 +13214,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003983065245171554</v>
+        <v>0.0003779268530499013</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>460</v>
@@ -13264,25 +13264,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003939350212464712</v>
+        <v>0.0003779268530499013</v>
       </c>
       <c r="C199">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F199">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>938</v>
+        <v>67</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>461</v>
@@ -13314,25 +13314,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003721681922802017</v>
+        <v>0.0003773305542351107</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F200">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>462</v>
@@ -13364,25 +13364,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003721681922802017</v>
+        <v>0.0003773305542351107</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F201">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>463</v>
@@ -13414,7 +13414,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003715809795691479</v>
+        <v>0.0003773305542351107</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>464</v>
@@ -13464,7 +13464,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003715809795691479</v>
+        <v>0.0003773305542351107</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13482,10 +13482,10 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K203">
         <v>0.001050214151825046</v>
@@ -13514,7 +13514,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0003715809795691479</v>
+        <v>0.0003773305542351107</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13532,10 +13532,10 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K204">
         <v>0.001011549751746086</v>
@@ -13564,25 +13564,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003715809795691479</v>
+        <v>0.0003502809754087524</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>465</v>
@@ -13614,25 +13614,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003715809795691479</v>
+        <v>0.0003502809754087524</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>466</v>
@@ -13664,25 +13664,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003449435687249458</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>467</v>
@@ -13714,25 +13714,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003449435687249458</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>530</v>
+        <v>46</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>468</v>
@@ -13764,7 +13764,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>469</v>
@@ -13814,7 +13814,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13832,7 +13832,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>470</v>
@@ -13864,7 +13864,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>471</v>
@@ -13914,7 +13914,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13932,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>472</v>
@@ -13964,7 +13964,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13982,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>473</v>
@@ -14014,7 +14014,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003203123453699626</v>
+        <v>0.0003252686263622505</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14032,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>474</v>
@@ -14064,25 +14064,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003203123453699626</v>
+        <v>0.0002860032187852753</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>475</v>
@@ -14114,25 +14114,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003203123453699626</v>
+        <v>0.0002679761175086964</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F216">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>476</v>
@@ -14164,25 +14164,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002816452444769265</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>477</v>
@@ -14214,25 +14214,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002638928311725704</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>478</v>
@@ -14264,7 +14264,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002631626525032695</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14282,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>479</v>
@@ -14314,7 +14314,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002631626525032695</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14332,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>480</v>
@@ -14364,7 +14364,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002631626525032695</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14382,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>481</v>
@@ -14414,7 +14414,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0002631626525032695</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>482</v>
@@ -14464,7 +14464,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002631626525032695</v>
+        <v>0.0002672346405840771</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>483</v>
@@ -14514,25 +14514,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002631626525032695</v>
+        <v>0.0002360400753077777</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>484</v>
@@ -14564,25 +14564,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002631626525032695</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>485</v>
@@ -14614,25 +14614,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002324434144439561</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>486</v>
@@ -14664,7 +14664,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>487</v>
@@ -14714,7 +14714,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14732,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>488</v>
@@ -14764,7 +14764,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>489</v>
@@ -14814,7 +14814,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14832,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>490</v>
@@ -14864,7 +14864,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14882,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>491</v>
@@ -14914,7 +14914,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14932,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>492</v>
@@ -14964,7 +14964,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>493</v>
@@ -15014,7 +15014,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15032,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>494</v>
@@ -15064,7 +15064,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>495</v>
@@ -15114,7 +15114,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15132,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>496</v>
@@ -15164,7 +15164,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15182,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>497</v>
@@ -15214,7 +15214,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001991532622585777</v>
+        <v>0.0002022348154442479</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15232,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>498</v>
@@ -15264,25 +15264,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001991532622585777</v>
+        <v>0.0001835251288678364</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>499</v>
@@ -15314,25 +15314,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001991532622585777</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>500</v>
@@ -15364,13 +15364,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001807286645485207</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E241">
         <v>0.75</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>501</v>
@@ -15414,7 +15414,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15432,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>502</v>
@@ -15464,7 +15464,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>503</v>
@@ -15514,7 +15514,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>504</v>
@@ -15564,7 +15564,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>505</v>
@@ -15614,7 +15614,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15632,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>506</v>
@@ -15664,7 +15664,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>507</v>
@@ -15714,7 +15714,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15732,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>508</v>
@@ -15764,7 +15764,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15782,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>509</v>
@@ -15814,7 +15814,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>510</v>
@@ -15864,7 +15864,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001277944642570483</v>
+        <v>0.0001297718631405826</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15882,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>511</v>
@@ -15914,25 +15914,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001277944642570483</v>
+        <v>0.0001291034768894906</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>512</v>
@@ -15964,25 +15964,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001277944642570483</v>
+        <v>7.469979644038022E-05</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F253">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>513</v>
@@ -16014,25 +16014,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001271362625420699</v>
+        <v>7.469979644038022E-05</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E254">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F254">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>514</v>
@@ -16064,25 +16064,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>7.356155822366115E-05</v>
+        <v>7.469979644037906E-05</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E255">
+        <v>0.67</v>
+      </c>
+      <c r="F255">
         <v>0.33</v>
       </c>
-      <c r="F255">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>515</v>
@@ -16114,25 +16114,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>7.356155822366115E-05</v>
+        <v>7.469979644037906E-05</v>
       </c>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E256">
+        <v>0.67</v>
+      </c>
+      <c r="F256">
         <v>0.33</v>
       </c>
-      <c r="F256">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>516</v>
@@ -16164,13 +16164,13 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>7.356155822366001E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E257">
         <v>0.67</v>
@@ -16182,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>517</v>
@@ -16214,13 +16214,13 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>7.356155822366001E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E258">
         <v>0.67</v>
@@ -16232,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>518</v>
@@ -16264,7 +16264,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.201587665459903E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>519</v>
@@ -16314,7 +16314,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.201587665459903E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16332,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>520</v>
@@ -16364,7 +16364,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.201587665459903E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16382,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>521</v>
@@ -16414,7 +16414,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.201587665459903E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>522</v>
@@ -16464,7 +16464,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.201587665459903E-05</v>
+        <v>5.282073261624675E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>523</v>
@@ -16514,25 +16514,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.201587665459903E-05</v>
+        <v>2.581258427716197E-05</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>524</v>
@@ -16564,25 +16564,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.201587665459903E-05</v>
+        <v>2.581258427716197E-05</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E265">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F265">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>525</v>
@@ -16614,25 +16614,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>2.541926500058273E-05</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F266">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>526</v>
@@ -16664,25 +16664,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>2.541926500058273E-05</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>527</v>
@@ -16717,10 +16717,10 @@
         <v>0</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E268">
         <v>0.5</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>528</v>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>529</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>530</v>
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>531</v>
@@ -16982,7 +16982,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>533</v>
@@ -17032,10 +17032,10 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K274">
         <v>0.0009700404922690709</v>
@@ -17082,10 +17082,10 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K275">
         <v>0.0009093040453841426</v>
@@ -17132,7 +17132,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>534</v>
@@ -17182,7 +17182,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>535</v>
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>536</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>537</v>
@@ -17332,7 +17332,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>538</v>
@@ -17382,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>539</v>
@@ -17432,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>540</v>
@@ -17482,7 +17482,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>541</v>
@@ -17532,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>542</v>
@@ -17582,7 +17582,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>543</v>
@@ -17632,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>544</v>
@@ -17660,30 +17660,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <v>0.5</v>
-      </c>
-      <c r="F287">
-        <v>0.5</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>27</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>545</v>
       </c>
@@ -17710,30 +17686,6 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>2</v>
-      </c>
-      <c r="E288">
-        <v>0.5</v>
-      </c>
-      <c r="F288">
-        <v>0.5</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>23</v>
-      </c>
       <c r="J288" s="1" t="s">
         <v>546</v>
       </c>
@@ -21037,7 +20989,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K415">
         <v>0.0008116370507514876</v>
@@ -21063,7 +21015,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K416">
         <v>0.0007709706422998744</v>
@@ -21089,7 +21041,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K417">
         <v>0.0007540997748276138</v>
@@ -21115,7 +21067,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K418">
         <v>0.0007540997748276138</v>
@@ -21141,7 +21093,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K419">
         <v>0.0007012813876634249</v>
@@ -21167,7 +21119,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K420">
         <v>0.0006859222101089968</v>
@@ -21193,7 +21145,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K421">
         <v>0.0006429750566514874</v>
@@ -21219,7 +21171,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K422">
         <v>0.0006429750566514874</v>
@@ -21245,7 +21197,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K423">
         <v>0.0006429750566514874</v>
@@ -21271,7 +21223,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K424">
         <v>0.0006429750566514874</v>
@@ -21297,7 +21249,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K425">
         <v>0.0005940656313207238</v>
@@ -21323,7 +21275,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K426">
         <v>0.0005940656313207238</v>
@@ -30085,7 +30037,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K763">
         <v>0.0005668669639767247</v>
@@ -30111,7 +30063,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K764">
         <v>0.0005554530964636591</v>
@@ -30137,7 +30089,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K765">
         <v>0.0005554530964636591</v>
@@ -30163,7 +30115,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K766">
         <v>0.0005554530964636591</v>
@@ -30189,7 +30141,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K767">
         <v>0.0005108673579766425</v>
@@ -30215,7 +30167,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K768">
         <v>0.0005108673579766425</v>
@@ -30241,7 +30193,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K769">
         <v>0.0004657342634469507</v>
@@ -30267,7 +30219,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K770">
         <v>0.0004628449379278755</v>
@@ -30293,7 +30245,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K771">
         <v>0.0004296830906885511</v>
@@ -30319,7 +30271,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K772">
         <v>0.0004200678363767512</v>
@@ -30345,7 +30297,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K773">
         <v>0.0003738982293645504</v>
@@ -30371,7 +30323,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K774">
         <v>0.0003738982293645504</v>
@@ -30397,7 +30349,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K775">
         <v>0.0003738982293645504</v>
@@ -30423,7 +30375,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K776">
         <v>0.0003272807942466675</v>
@@ -30449,7 +30401,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K777">
         <v>0.0003272807942466675</v>
@@ -30475,7 +30427,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K778">
         <v>0.0002803110595386474</v>
@@ -30501,7 +30453,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K779">
         <v>0.0002803110595386474</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K780">
         <v>0.0002803110595386474</v>
@@ -30553,7 +30505,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K781">
         <v>0.0002803110595386474</v>
@@ -30579,7 +30531,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K782">
         <v>0.0002331504688864557</v>
@@ -30605,7 +30557,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K783">
         <v>0.0002331504688864557</v>
@@ -30631,7 +30583,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K784">
         <v>0.0002331504688864557</v>
@@ -30657,7 +30609,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K785">
         <v>0.0002331504688864557</v>
@@ -30683,7 +30635,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K786">
         <v>0.0002331504688864557</v>
@@ -30709,7 +30661,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K787">
         <v>0.0002300954155709912</v>
@@ -30735,7 +30687,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K788">
         <v>0.0002300954155709912</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K789">
         <v>0.0002300954155709912</v>
@@ -30787,7 +30739,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K790">
         <v>0.0002300954155709912</v>
@@ -30813,7 +30765,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K791">
         <v>0.0001973595076449553</v>
@@ -30839,7 +30791,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K792">
         <v>0.0001973595076449553</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K793">
         <v>0.0001860728889546621</v>
@@ -30891,7 +30843,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K794">
         <v>0.0001860728889546621</v>
@@ -30917,7 +30869,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K795">
         <v>0.0001860728889546621</v>
@@ -30943,7 +30895,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K796">
         <v>0.0001860728889546621</v>
@@ -30969,7 +30921,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K797">
         <v>0.0001860728889546621</v>
@@ -30995,7 +30947,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K798">
         <v>0.0001860728889546621</v>
@@ -31021,7 +30973,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K799">
         <v>0.0001860728889546621</v>
@@ -31047,7 +30999,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K800">
         <v>0.0001860728889546621</v>
@@ -31073,7 +31025,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K801">
         <v>0.000169345354554901</v>
@@ -31099,7 +31051,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K802">
         <v>0.0001636107538709878</v>
@@ -31125,7 +31077,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K803">
         <v>0.0001636107538709878</v>
@@ -31151,7 +31103,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K804">
         <v>0.0001395542461873861</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K805">
         <v>0.0001395542461873861</v>
@@ -31203,7 +31155,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K806">
         <v>0.0001395542461873861</v>
@@ -31229,7 +31181,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K807">
         <v>0.0001395542461873861</v>
@@ -31255,7 +31207,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K808">
         <v>0.0001395542461873861</v>
@@ -31281,7 +31233,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K809">
         <v>0.0001395542461873861</v>
@@ -31307,7 +31259,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K810">
         <v>0.0001395542461873861</v>
@@ -31333,7 +31285,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K811">
         <v>0.0001335876211386692</v>
@@ -31359,7 +31311,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K812">
         <v>0.00011426172150951</v>
@@ -31385,7 +31337,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K813">
         <v>0.0001031300115512701</v>
@@ -31411,7 +31363,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K814">
         <v>9.446071278973239E-05</v>
@@ -31437,7 +31389,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K815">
         <v>9.446071278973239E-05</v>
@@ -31463,7 +31415,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K816">
         <v>9.446071278973239E-05</v>
@@ -31489,7 +31441,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K817">
         <v>9.446071278973239E-05</v>
@@ -31515,7 +31467,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K818">
         <v>9.446071278973239E-05</v>
@@ -31541,7 +31493,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K819">
         <v>9.446071278973239E-05</v>
@@ -31567,7 +31519,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K820">
         <v>9.446071278973239E-05</v>
@@ -31593,7 +31545,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K821">
         <v>9.446071278973239E-05</v>
@@ -31619,7 +31571,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K822">
         <v>9.446071278973239E-05</v>
@@ -31645,7 +31597,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K823">
         <v>9.446071278973239E-05</v>
@@ -31671,7 +31623,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K824">
         <v>9.446071278973239E-05</v>
@@ -31697,7 +31649,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K825">
         <v>9.446071278973239E-05</v>
@@ -31723,7 +31675,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K826">
         <v>9.446071278973239E-05</v>
@@ -31749,7 +31701,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K827">
         <v>9.446071278973239E-05</v>
@@ -31775,7 +31727,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K828">
         <v>7.423717974172118E-05</v>
@@ -31801,7 +31753,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K829">
         <v>5.249361321153563E-05</v>
@@ -31827,7 +31779,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K830">
         <v>5.249361321153563E-05</v>
@@ -31853,7 +31805,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K831">
         <v>5.249361321153563E-05</v>
@@ -31879,7 +31831,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K832">
         <v>5.249361321153563E-05</v>
@@ -31905,7 +31857,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K833">
         <v>5.249361321153563E-05</v>
@@ -31931,7 +31883,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K834">
         <v>5.249361321153563E-05</v>
@@ -31957,7 +31909,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K835">
         <v>5.249361321153563E-05</v>
@@ -31983,7 +31935,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K836">
         <v>5.249361321153563E-05</v>
@@ -32009,7 +31961,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K837">
         <v>5.249361321153563E-05</v>
@@ -32035,7 +31987,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K838">
         <v>5.249361321153563E-05</v>
@@ -32061,7 +32013,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K839">
         <v>5.249361321153563E-05</v>
@@ -32087,7 +32039,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K840">
         <v>5.249361321153563E-05</v>
@@ -32113,7 +32065,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K841">
         <v>4.76730834342289E-05</v>
@@ -32139,7 +32091,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K842">
         <v>4.723035639486619E-05</v>
@@ -32165,7 +32117,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K843">
         <v>2.467173637756793E-05</v>
@@ -32191,7 +32143,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K844">
         <v>2.467173637756793E-05</v>
@@ -32217,7 +32169,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K845">
         <v>1.74455520962252E-05</v>
@@ -32243,7 +32195,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K846">
         <v>1.74455520962252E-05</v>
@@ -32269,7 +32221,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K847">
         <v>1.74455520962252E-05</v>
@@ -32295,7 +32247,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K848">
         <v>1.74455520962252E-05</v>
@@ -32321,7 +32273,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K849">
         <v>1.74455520962252E-05</v>
@@ -32347,7 +32299,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K850">
         <v>1.74455520962252E-05</v>
@@ -32373,7 +32325,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K851">
         <v>1.74455520962252E-05</v>
@@ -32399,7 +32351,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K852">
         <v>1.233586818878383E-05</v>
@@ -32425,7 +32377,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K853">
         <v>1.233586818878383E-05</v>
@@ -32451,7 +32403,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K854">
         <v>7.383162313490555E-06</v>
@@ -32477,7 +32429,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K855">
         <v>7.383162313490555E-06</v>
@@ -32503,7 +32455,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -32529,7 +32481,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -32555,7 +32507,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -32581,7 +32533,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -32607,7 +32559,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -32633,7 +32585,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K861">
         <v>0</v>
@@ -32659,7 +32611,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K862">
         <v>0</v>
@@ -32685,7 +32637,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K863">
         <v>0</v>
@@ -32711,7 +32663,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K864">
         <v>0</v>
@@ -32737,7 +32689,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K865">
         <v>0</v>
@@ -32763,7 +32715,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K866">
         <v>0</v>
@@ -32789,7 +32741,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -32815,7 +32767,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -32841,7 +32793,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -32867,7 +32819,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K870">
         <v>0</v>
@@ -32893,7 +32845,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K871">
         <v>0</v>
@@ -32919,7 +32871,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -32945,7 +32897,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K873">
         <v>0</v>
@@ -32971,7 +32923,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K874">
         <v>0</v>
@@ -32997,7 +32949,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K875">
         <v>0</v>
@@ -33023,7 +32975,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K876">
         <v>0</v>
